--- a/data/yearwise/2013.xlsx
+++ b/data/yearwise/2013.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NEFT!$A$1:$G$1</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -301,9 +301,6 @@
     <t>BARCLAYS BANK</t>
   </si>
   <si>
-    <t xml:space="preserve">CITI BANK </t>
-  </si>
-  <si>
     <t>CITY UNION BANK LTD</t>
   </si>
   <si>
@@ -317,9 +314,6 @@
   </si>
   <si>
     <t>DEUSTCHE BANK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEVELOPMENT CREDIT BANK </t>
   </si>
   <si>
     <t>DHANLAXMI BANK LTD</t>
@@ -460,9 +454,6 @@
     <t>SUMITOMO MITSUI BANKING CORPORATION</t>
   </si>
   <si>
-    <t>SURAT DISTRICT COOPERATIVE BANK Ltd</t>
-  </si>
-  <si>
     <t>SURAT PEOPLES COOPERATIVE BANK</t>
   </si>
   <si>
@@ -517,12 +508,6 @@
     <t>THE VISHWESHWAR SAHAKARI BANK LTD</t>
   </si>
   <si>
-    <t xml:space="preserve">TUMKUR GRAIN MERCHANTS COOP BANK </t>
-  </si>
-  <si>
-    <t>The Gadchiroli Dist Co-Op Bank</t>
-  </si>
-  <si>
     <t>UNITED OVERSEAS BANK LTD</t>
   </si>
   <si>
@@ -536,6 +521,21 @@
   </si>
   <si>
     <t>OMAN INTERNATIONAL BANK</t>
+  </si>
+  <si>
+    <t>CITI BANK</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT CREDIT BANK</t>
+  </si>
+  <si>
+    <t>SURAT DISTRICT COOPERATIVE BANK LTD</t>
+  </si>
+  <si>
+    <t>TUMKUR GRAIN MERCHANTS COOP BANK</t>
+  </si>
+  <si>
+    <t>THE GADCHIROLI DIST CO-OP BANK</t>
   </si>
 </sst>
 </file>
@@ -928,7 +928,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B29">
         <v>2694395</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>219005</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34">
         <v>12015</v>
@@ -1726,7 +1726,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B35">
         <v>805</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36">
         <v>21</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38">
         <v>527126</v>
@@ -1841,7 +1841,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B40">
         <v>44680</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41">
         <v>82891</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44">
         <v>428636</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>2030</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48">
         <v>5618944</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54">
         <v>467661</v>
@@ -2186,7 +2186,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55">
         <v>471062</v>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B56">
         <v>1170</v>
@@ -2232,7 +2232,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B57">
         <v>209</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B58">
         <v>46118</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B59">
         <v>2283</v>
@@ -2301,7 +2301,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B60">
         <v>3367</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61">
         <v>798</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64">
         <v>3082</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B65">
         <v>1440</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66">
         <v>747</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B67">
         <v>901</v>
@@ -2485,7 +2485,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B68">
         <v>96069</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70">
         <v>9883</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B71">
         <v>138761</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72">
         <v>759995</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74">
         <v>1541</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75">
         <v>951</v>
@@ -2692,7 +2692,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B77">
         <v>2248</v>
@@ -2715,7 +2715,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B78">
         <v>3760</v>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B79">
         <v>752</v>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B81">
         <v>2168</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B82">
         <v>6483</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B86">
         <v>782</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B87">
         <v>410</v>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B89">
         <v>1460</v>
@@ -3014,7 +3014,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B91">
         <v>170</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B92">
         <v>5903</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B95">
         <v>51</v>
@@ -3129,7 +3129,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B96">
         <v>1310</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B98">
         <v>56911</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B99">
         <v>26929</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B101">
         <v>20700</v>
@@ -3290,7 +3290,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B103">
         <v>2</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B106">
         <v>1270665</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B114">
         <v>771</v>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B115">
         <v>1690</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B116">
         <v>465</v>
@@ -3635,7 +3635,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B118">
         <v>3553</v>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B119">
         <v>74157</v>
@@ -3681,7 +3681,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B120">
         <v>880</v>
@@ -3704,7 +3704,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B121">
         <v>8638</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B122">
         <v>2185</v>
@@ -3750,7 +3750,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B123">
         <v>147</v>
@@ -3773,7 +3773,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B124">
         <v>122</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B125">
         <v>1108</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B126">
         <v>274</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B127">
         <v>4339</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B128">
         <v>91</v>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B129">
         <v>235521</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B130">
         <v>72</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B131">
         <v>689</v>
@@ -4115,7 +4115,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B139">
         <v>957830</v>
@@ -4759,7 +4759,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>2661983</v>
@@ -4805,7 +4805,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B169">
         <v>227415</v>
@@ -4874,7 +4874,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B172">
         <v>11658</v>
@@ -4897,7 +4897,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B173">
         <v>767</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B174">
         <v>24</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B176">
         <v>523097</v>
@@ -5012,7 +5012,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B178">
         <v>42875</v>
@@ -5035,7 +5035,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B179">
         <v>80756</v>
@@ -5104,7 +5104,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B182">
         <v>397054</v>
@@ -5150,7 +5150,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B184">
         <v>1858</v>
@@ -5196,7 +5196,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B186">
         <v>5333748</v>
@@ -5334,7 +5334,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B192">
         <v>428570</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B193">
         <v>418741</v>
@@ -5380,7 +5380,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B194">
         <v>1106</v>
@@ -5403,7 +5403,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B195">
         <v>315</v>
@@ -5426,7 +5426,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B196">
         <v>40720</v>
@@ -5449,7 +5449,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B197">
         <v>2174</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B198">
         <v>3182</v>
@@ -5495,7 +5495,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B199">
         <v>707</v>
@@ -5564,7 +5564,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B202">
         <v>3037</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B203">
         <v>1321</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B204">
         <v>666</v>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B205">
         <v>875</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B206">
         <v>95327</v>
@@ -5702,7 +5702,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B208">
         <v>7942</v>
@@ -5725,7 +5725,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B209">
         <v>139111</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B210">
         <v>750219</v>
@@ -5794,7 +5794,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B212">
         <v>1417</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B213">
         <v>938</v>
@@ -5863,7 +5863,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B215">
         <v>2236</v>
@@ -5886,7 +5886,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B216">
         <v>3799</v>
@@ -5909,7 +5909,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B217">
         <v>371</v>
@@ -5932,7 +5932,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B218">
         <v>13</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B219">
         <v>1873</v>
@@ -5978,7 +5978,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B220">
         <v>5953</v>
@@ -6070,7 +6070,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B224">
         <v>724</v>
@@ -6093,7 +6093,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B225">
         <v>444</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B227">
         <v>1367</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B229">
         <v>238</v>
@@ -6208,7 +6208,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B230">
         <v>5983</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B233">
         <v>33</v>
@@ -6300,7 +6300,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B234">
         <v>1361</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B236">
         <v>55432</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B237">
         <v>24433</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B239">
         <v>3</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B240">
         <v>19160</v>
@@ -6484,7 +6484,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B242">
         <v>299</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B245">
         <v>1253109</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B253">
         <v>845</v>
@@ -6760,7 +6760,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B254">
         <v>1515</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B255">
         <v>425</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B257">
         <v>3685</v>
@@ -6852,7 +6852,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B258">
         <v>76576</v>
@@ -6875,7 +6875,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B259">
         <v>734</v>
@@ -6898,7 +6898,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B260">
         <v>7964</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B261">
         <v>2133</v>
@@ -6944,7 +6944,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B262">
         <v>122</v>
@@ -6967,7 +6967,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B263">
         <v>118</v>
@@ -6990,7 +6990,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B264">
         <v>1531</v>
@@ -7013,7 +7013,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B265">
         <v>287</v>
@@ -7036,7 +7036,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B266">
         <v>4321</v>
@@ -7059,7 +7059,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B267">
         <v>97</v>
@@ -7082,7 +7082,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B268">
         <v>216673</v>
@@ -7105,7 +7105,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B269">
         <v>580</v>
@@ -7128,7 +7128,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B270">
         <v>711</v>
@@ -7151,7 +7151,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B271">
         <v>106</v>
@@ -7266,7 +7266,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B276">
         <v>4</v>
@@ -7335,7 +7335,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B281">
         <v>941739</v>
@@ -8048,7 +8048,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B310">
         <v>3178260</v>
@@ -8094,7 +8094,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B312">
         <v>316793</v>
@@ -8163,7 +8163,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B315">
         <v>15457</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B316">
         <v>738</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B317">
         <v>22</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B319">
         <v>627147</v>
@@ -8301,7 +8301,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B321">
         <v>43866</v>
@@ -8324,7 +8324,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B322">
         <v>109130</v>
@@ -8393,7 +8393,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B325">
         <v>528929</v>
@@ -8439,7 +8439,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B327">
         <v>2262</v>
@@ -8485,7 +8485,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B329">
         <v>6479061</v>
@@ -8531,7 +8531,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B331">
         <v>504</v>
@@ -8646,7 +8646,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B336">
         <v>572812</v>
@@ -8669,7 +8669,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B337">
         <v>587609</v>
@@ -8692,7 +8692,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B338">
         <v>1421</v>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B339">
         <v>339</v>
@@ -8738,7 +8738,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B340">
         <v>52351</v>
@@ -8761,7 +8761,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B341">
         <v>2571</v>
@@ -8784,7 +8784,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B342">
         <v>4061</v>
@@ -8807,7 +8807,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B343">
         <v>1105</v>
@@ -8876,7 +8876,7 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B346">
         <v>3647</v>
@@ -8899,7 +8899,7 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B347">
         <v>1593</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B348">
         <v>1126</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B349">
         <v>1166</v>
@@ -8968,7 +8968,7 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B350">
         <v>109951</v>
@@ -9014,7 +9014,7 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B352">
         <v>9175</v>
@@ -9037,7 +9037,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B353">
         <v>164170</v>
@@ -9060,7 +9060,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B354">
         <v>945943</v>
@@ -9083,7 +9083,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -9129,7 +9129,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B357">
         <v>1661</v>
@@ -9152,7 +9152,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B358">
         <v>893</v>
@@ -9198,7 +9198,7 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B360">
         <v>2777</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B361">
         <v>3836</v>
@@ -9244,7 +9244,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B362">
         <v>561</v>
@@ -9267,7 +9267,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B363">
         <v>29</v>
@@ -9290,7 +9290,7 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B364">
         <v>2376</v>
@@ -9313,7 +9313,7 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B365">
         <v>7343</v>
@@ -9405,7 +9405,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B369">
         <v>973</v>
@@ -9451,7 +9451,7 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B371">
         <v>1717</v>
@@ -9497,7 +9497,7 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B373">
         <v>950</v>
@@ -9520,7 +9520,7 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B374">
         <v>6848</v>
@@ -9589,7 +9589,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B377">
         <v>52</v>
@@ -9612,7 +9612,7 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B378">
         <v>1674</v>
@@ -9658,7 +9658,7 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B380">
         <v>70736</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B381">
         <v>29506</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B383">
         <v>522</v>
@@ -9750,7 +9750,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B384">
         <v>24171</v>
@@ -9796,7 +9796,7 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B386">
         <v>611</v>
@@ -9865,7 +9865,7 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B389">
         <v>1479519</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -10072,7 +10072,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B398">
         <v>1019</v>
@@ -10095,7 +10095,7 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B399">
         <v>1808</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B400">
         <v>586</v>
@@ -10164,7 +10164,7 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B402">
         <v>3964</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B403">
         <v>88826</v>
@@ -10210,7 +10210,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B404">
         <v>902</v>
@@ -10233,7 +10233,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B405">
         <v>14</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B406">
         <v>10846</v>
@@ -10279,7 +10279,7 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B407">
         <v>2575</v>
@@ -10302,7 +10302,7 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B408">
         <v>275</v>
@@ -10325,7 +10325,7 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B409">
         <v>154</v>
@@ -10348,7 +10348,7 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B410">
         <v>2940</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B411">
         <v>341</v>
@@ -10394,7 +10394,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B412">
         <v>5237</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B413">
         <v>155</v>
@@ -10440,7 +10440,7 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B414">
         <v>248688</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B415">
         <v>811</v>
@@ -10486,7 +10486,7 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B416">
         <v>1025</v>
@@ -10509,7 +10509,7 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B417">
         <v>305</v>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -10647,7 +10647,7 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B423">
         <v>4</v>
@@ -10716,7 +10716,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -10762,7 +10762,7 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B428">
         <v>1077818</v>
@@ -11429,7 +11429,7 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B457">
         <v>2663685</v>
@@ -11475,7 +11475,7 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B459">
         <v>204829</v>
@@ -11544,7 +11544,7 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B462">
         <v>14773</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B463">
         <v>819</v>
@@ -11590,7 +11590,7 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B464">
         <v>21</v>
@@ -11636,7 +11636,7 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B466">
         <v>566199</v>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B468">
         <v>49901</v>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B469">
         <v>87103</v>
@@ -11774,7 +11774,7 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B472">
         <v>485437</v>
@@ -11820,7 +11820,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B474">
         <v>2191</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B476">
         <v>5796996</v>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B478">
         <v>449</v>
@@ -12027,7 +12027,7 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B483">
         <v>374495</v>
@@ -12050,7 +12050,7 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B484">
         <v>332913</v>
@@ -12073,7 +12073,7 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B485">
         <v>1411</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B486">
         <v>261</v>
@@ -12119,7 +12119,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B487">
         <v>56639</v>
@@ -12142,7 +12142,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B488">
         <v>2487</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B489">
         <v>4046</v>
@@ -12188,7 +12188,7 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B490">
         <v>1121</v>
@@ -12257,7 +12257,7 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B493">
         <v>3137</v>
@@ -12280,7 +12280,7 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B494">
         <v>1661</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B495">
         <v>958</v>
@@ -12326,7 +12326,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B496">
         <v>1226</v>
@@ -12349,7 +12349,7 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B497">
         <v>105726</v>
@@ -12395,7 +12395,7 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B499">
         <v>11377</v>
@@ -12418,7 +12418,7 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B500">
         <v>158661</v>
@@ -12441,7 +12441,7 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B501">
         <v>821634</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B502">
         <v>0</v>
@@ -12510,7 +12510,7 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B504">
         <v>1727</v>
@@ -12533,7 +12533,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B505">
         <v>786</v>
@@ -12579,7 +12579,7 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B507">
         <v>2371</v>
@@ -12602,7 +12602,7 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B508">
         <v>3589</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B509">
         <v>1047</v>
@@ -12648,7 +12648,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B510">
         <v>33</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B511">
         <v>2263</v>
@@ -12694,7 +12694,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B512">
         <v>7071</v>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B516">
         <v>871</v>
@@ -12832,7 +12832,7 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B518">
         <v>1749</v>
@@ -12878,7 +12878,7 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B520">
         <v>1222</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B521">
         <v>7256</v>
@@ -12970,7 +12970,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B524">
         <v>50</v>
@@ -12993,7 +12993,7 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B525">
         <v>1405</v>
@@ -13039,7 +13039,7 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B527">
         <v>68679</v>
@@ -13062,7 +13062,7 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B528">
         <v>29237</v>
@@ -13108,7 +13108,7 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B530">
         <v>528</v>
@@ -13131,7 +13131,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B531">
         <v>22812</v>
@@ -13177,7 +13177,7 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B533">
         <v>701</v>
@@ -13246,7 +13246,7 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B536">
         <v>1199854</v>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B544">
         <v>9</v>
@@ -13453,7 +13453,7 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B545">
         <v>1009</v>
@@ -13476,7 +13476,7 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B546">
         <v>1843</v>
@@ -13499,7 +13499,7 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B547">
         <v>584</v>
@@ -13545,7 +13545,7 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B549">
         <v>4264</v>
@@ -13568,7 +13568,7 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B550">
         <v>87856</v>
@@ -13591,7 +13591,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B551">
         <v>825</v>
@@ -13614,7 +13614,7 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B552">
         <v>77</v>
@@ -13637,7 +13637,7 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B553">
         <v>9605</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B554">
         <v>2477</v>
@@ -13683,7 +13683,7 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B555">
         <v>284</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B556">
         <v>187</v>
@@ -13729,7 +13729,7 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B557">
         <v>2469</v>
@@ -13752,7 +13752,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B558">
         <v>368</v>
@@ -13775,7 +13775,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B559">
         <v>5006</v>
@@ -13798,7 +13798,7 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B560">
         <v>134</v>
@@ -13821,7 +13821,7 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B561">
         <v>231073</v>
@@ -13844,7 +13844,7 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B562">
         <v>778</v>
@@ -13867,7 +13867,7 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B563">
         <v>1051</v>
@@ -13890,7 +13890,7 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B564">
         <v>287</v>
@@ -13913,7 +13913,7 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B565">
         <v>1</v>
@@ -14028,7 +14028,7 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B570">
         <v>6</v>
@@ -14097,7 +14097,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B573">
         <v>2</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B575">
         <v>902187</v>
@@ -14810,7 +14810,7 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B604">
         <v>2862872</v>
@@ -14856,7 +14856,7 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B606">
         <v>263534</v>
@@ -14925,7 +14925,7 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B609">
         <v>15192</v>
@@ -14948,7 +14948,7 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B610">
         <v>875</v>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B611">
         <v>21</v>
@@ -15017,7 +15017,7 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B613">
         <v>601052</v>
@@ -15063,7 +15063,7 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B615">
         <v>53966</v>
@@ -15086,7 +15086,7 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B616">
         <v>107135</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B619">
         <v>584670</v>
@@ -15201,7 +15201,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B621">
         <v>2144</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B623">
         <v>6235342</v>
@@ -15293,7 +15293,7 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B625">
         <v>464</v>
@@ -15408,7 +15408,7 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B630">
         <v>508478</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B631">
         <v>485221</v>
@@ -15454,7 +15454,7 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B632">
         <v>1545</v>
@@ -15477,7 +15477,7 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B633">
         <v>310</v>
@@ -15500,7 +15500,7 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B634">
         <v>62373</v>
@@ -15523,7 +15523,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B635">
         <v>2313</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B636">
         <v>3840</v>
@@ -15569,7 +15569,7 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B637">
         <v>1021</v>
@@ -15638,7 +15638,7 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B640">
         <v>3194</v>
@@ -15661,7 +15661,7 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B641">
         <v>1504</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B642">
         <v>999</v>
@@ -15707,7 +15707,7 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B643">
         <v>1243</v>
@@ -15730,7 +15730,7 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B644">
         <v>104376</v>
@@ -15776,7 +15776,7 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B646">
         <v>8491</v>
@@ -15799,7 +15799,7 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B647">
         <v>177206</v>
@@ -15822,7 +15822,7 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B648">
         <v>919178</v>
@@ -15845,7 +15845,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -15891,7 +15891,7 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B651">
         <v>1768</v>
@@ -15914,7 +15914,7 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B652">
         <v>765</v>
@@ -15960,7 +15960,7 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B654">
         <v>2607</v>
@@ -15983,7 +15983,7 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B655">
         <v>3900</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B656">
         <v>433</v>
@@ -16029,7 +16029,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B657">
         <v>30</v>
@@ -16052,7 +16052,7 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B658">
         <v>2270</v>
@@ -16075,7 +16075,7 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B659">
         <v>7667</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B663">
         <v>953</v>
@@ -16213,7 +16213,7 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B665">
         <v>1601</v>
@@ -16259,7 +16259,7 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B667">
         <v>1374</v>
@@ -16282,7 +16282,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B668">
         <v>7111</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B671">
         <v>64</v>
@@ -16374,7 +16374,7 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B672">
         <v>1700</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B674">
         <v>67090</v>
@@ -16443,7 +16443,7 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B675">
         <v>28871</v>
@@ -16489,7 +16489,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B677">
         <v>590</v>
@@ -16512,7 +16512,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B678">
         <v>22280</v>
@@ -16558,7 +16558,7 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B680">
         <v>819</v>
@@ -16627,7 +16627,7 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B683">
         <v>1328401</v>
@@ -16811,7 +16811,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B691">
         <v>98</v>
@@ -16834,7 +16834,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B692">
         <v>1099</v>
@@ -16857,7 +16857,7 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B693">
         <v>1868</v>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B694">
         <v>600</v>
@@ -16926,7 +16926,7 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B696">
         <v>5937</v>
@@ -16949,7 +16949,7 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B697">
         <v>91162</v>
@@ -16972,7 +16972,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B698">
         <v>960</v>
@@ -16995,7 +16995,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B699">
         <v>134</v>
@@ -17018,7 +17018,7 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B700">
         <v>10200</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B701">
         <v>2535</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B702">
         <v>298</v>
@@ -17087,7 +17087,7 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B703">
         <v>169</v>
@@ -17110,7 +17110,7 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B704">
         <v>3283</v>
@@ -17133,7 +17133,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B705">
         <v>400</v>
@@ -17156,7 +17156,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B706">
         <v>5545</v>
@@ -17179,7 +17179,7 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B707">
         <v>164</v>
@@ -17202,7 +17202,7 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B708">
         <v>235145</v>
@@ -17225,7 +17225,7 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B709">
         <v>849</v>
@@ -17248,7 +17248,7 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B710">
         <v>1072</v>
@@ -17271,7 +17271,7 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B711">
         <v>355</v>
@@ -17294,7 +17294,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B712">
         <v>18</v>
@@ -17409,7 +17409,7 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B717">
         <v>268</v>
@@ -17478,7 +17478,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B720">
         <v>13</v>
@@ -17524,7 +17524,7 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B722">
         <v>1044455</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B751">
         <v>2622799</v>
@@ -18237,7 +18237,7 @@
     </row>
     <row r="753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B753">
         <v>227544</v>
@@ -18306,7 +18306,7 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B756">
         <v>15552</v>
@@ -18329,7 +18329,7 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B757">
         <v>814</v>
@@ -18352,7 +18352,7 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B758">
         <v>22</v>
@@ -18398,7 +18398,7 @@
     </row>
     <row r="760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B760">
         <v>547998</v>
@@ -18444,7 +18444,7 @@
     </row>
     <row r="762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B762">
         <v>46703</v>
@@ -18467,7 +18467,7 @@
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B763">
         <v>90966</v>
@@ -18536,7 +18536,7 @@
     </row>
     <row r="766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B766">
         <v>557739</v>
@@ -18582,7 +18582,7 @@
     </row>
     <row r="768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B768">
         <v>2217</v>
@@ -18628,7 +18628,7 @@
     </row>
     <row r="770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B770">
         <v>5864452</v>
@@ -18674,7 +18674,7 @@
     </row>
     <row r="772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B772">
         <v>430</v>
@@ -18789,7 +18789,7 @@
     </row>
     <row r="777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B777">
         <v>456779</v>
@@ -18812,7 +18812,7 @@
     </row>
     <row r="778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B778">
         <v>479165</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B779">
         <v>1537</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B780">
         <v>391</v>
@@ -18881,7 +18881,7 @@
     </row>
     <row r="781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B781">
         <v>56796</v>
@@ -18904,7 +18904,7 @@
     </row>
     <row r="782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B782">
         <v>2413</v>
@@ -18927,7 +18927,7 @@
     </row>
     <row r="783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B783">
         <v>3709</v>
@@ -18950,7 +18950,7 @@
     </row>
     <row r="784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B784">
         <v>929</v>
@@ -19019,7 +19019,7 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B787">
         <v>3037</v>
@@ -19042,7 +19042,7 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B788">
         <v>1547</v>
@@ -19065,7 +19065,7 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B789">
         <v>807</v>
@@ -19088,7 +19088,7 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B790">
         <v>1265</v>
@@ -19111,7 +19111,7 @@
     </row>
     <row r="791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B791">
         <v>110824</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B793">
         <v>13471</v>
@@ -19180,7 +19180,7 @@
     </row>
     <row r="794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B794">
         <v>172011</v>
@@ -19203,7 +19203,7 @@
     </row>
     <row r="795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B795">
         <v>924851</v>
@@ -19226,7 +19226,7 @@
     </row>
     <row r="796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B796">
         <v>16</v>
@@ -19272,7 +19272,7 @@
     </row>
     <row r="798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B798">
         <v>2005</v>
@@ -19295,7 +19295,7 @@
     </row>
     <row r="799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B799">
         <v>761</v>
@@ -19341,7 +19341,7 @@
     </row>
     <row r="801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B801">
         <v>2452</v>
@@ -19364,7 +19364,7 @@
     </row>
     <row r="802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B802">
         <v>3836</v>
@@ -19387,7 +19387,7 @@
     </row>
     <row r="803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B803">
         <v>406</v>
@@ -19410,7 +19410,7 @@
     </row>
     <row r="804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B804">
         <v>45</v>
@@ -19433,7 +19433,7 @@
     </row>
     <row r="805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B805">
         <v>2281</v>
@@ -19456,7 +19456,7 @@
     </row>
     <row r="806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B806">
         <v>7072</v>
@@ -19548,7 +19548,7 @@
     </row>
     <row r="810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B810">
         <v>888</v>
@@ -19594,7 +19594,7 @@
     </row>
     <row r="812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B812">
         <v>1561</v>
@@ -19640,7 +19640,7 @@
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B814">
         <v>1320</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B815">
         <v>7043</v>
@@ -19732,7 +19732,7 @@
     </row>
     <row r="818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B818">
         <v>53</v>
@@ -19755,7 +19755,7 @@
     </row>
     <row r="819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B819">
         <v>1616</v>
@@ -19801,7 +19801,7 @@
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B821">
         <v>60594</v>
@@ -19824,7 +19824,7 @@
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B822">
         <v>27356</v>
@@ -19870,7 +19870,7 @@
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B824">
         <v>691</v>
@@ -19893,7 +19893,7 @@
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B825">
         <v>22345</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B827">
         <v>859</v>
@@ -20008,7 +20008,7 @@
     </row>
     <row r="830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B830">
         <v>1212291</v>
@@ -20192,7 +20192,7 @@
     </row>
     <row r="838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B838">
         <v>113</v>
@@ -20215,7 +20215,7 @@
     </row>
     <row r="839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B839">
         <v>968</v>
@@ -20238,7 +20238,7 @@
     </row>
     <row r="840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B840">
         <v>1877</v>
@@ -20261,7 +20261,7 @@
     </row>
     <row r="841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B841">
         <v>626</v>
@@ -20307,7 +20307,7 @@
     </row>
     <row r="843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B843">
         <v>4726</v>
@@ -20330,7 +20330,7 @@
     </row>
     <row r="844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B844">
         <v>92507</v>
@@ -20353,7 +20353,7 @@
     </row>
     <row r="845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B845">
         <v>840</v>
@@ -20376,7 +20376,7 @@
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B846">
         <v>253</v>
@@ -20399,7 +20399,7 @@
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B847">
         <v>10669</v>
@@ -20422,7 +20422,7 @@
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B848">
         <v>2551</v>
@@ -20445,7 +20445,7 @@
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B849">
         <v>337</v>
@@ -20468,7 +20468,7 @@
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B850">
         <v>182</v>
@@ -20491,7 +20491,7 @@
     </row>
     <row r="851" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B851">
         <v>3271</v>
@@ -20514,7 +20514,7 @@
     </row>
     <row r="852" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B852">
         <v>348</v>
@@ -20537,7 +20537,7 @@
     </row>
     <row r="853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B853">
         <v>5435</v>
@@ -20560,7 +20560,7 @@
     </row>
     <row r="854" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B854">
         <v>128</v>
@@ -20583,7 +20583,7 @@
     </row>
     <row r="855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B855">
         <v>221334</v>
@@ -20606,7 +20606,7 @@
     </row>
     <row r="856" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B856">
         <v>849</v>
@@ -20629,7 +20629,7 @@
     </row>
     <row r="857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B857">
         <v>1097</v>
@@ -20652,7 +20652,7 @@
     </row>
     <row r="858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B858">
         <v>388</v>
@@ -20675,7 +20675,7 @@
     </row>
     <row r="859" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B859">
         <v>12</v>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B864">
         <v>418</v>
@@ -20859,7 +20859,7 @@
     </row>
     <row r="867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B867">
         <v>5</v>
@@ -20905,7 +20905,7 @@
     </row>
     <row r="869" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B869">
         <v>902441</v>
@@ -21572,7 +21572,7 @@
     </row>
     <row r="898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B898">
         <v>2886507</v>
@@ -21618,7 +21618,7 @@
     </row>
     <row r="900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B900">
         <v>280943</v>
@@ -21687,7 +21687,7 @@
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B903">
         <v>18213</v>
@@ -21710,7 +21710,7 @@
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B904">
         <v>914</v>
@@ -21733,7 +21733,7 @@
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B905">
         <v>19</v>
@@ -21779,7 +21779,7 @@
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B907">
         <v>612761</v>
@@ -21825,7 +21825,7 @@
     </row>
     <row r="909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B909">
         <v>66355</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B910">
         <v>122693</v>
@@ -21917,7 +21917,7 @@
     </row>
     <row r="913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B913">
         <v>569810</v>
@@ -21963,7 +21963,7 @@
     </row>
     <row r="915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B915">
         <v>2643</v>
@@ -22009,7 +22009,7 @@
     </row>
     <row r="917" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B917">
         <v>6662376</v>
@@ -22055,7 +22055,7 @@
     </row>
     <row r="919" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B919">
         <v>468</v>
@@ -22170,7 +22170,7 @@
     </row>
     <row r="924" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B924">
         <v>535550</v>
@@ -22193,7 +22193,7 @@
     </row>
     <row r="925" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B925">
         <v>524850</v>
@@ -22216,7 +22216,7 @@
     </row>
     <row r="926" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B926">
         <v>1744</v>
@@ -22239,7 +22239,7 @@
     </row>
     <row r="927" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B927">
         <v>456</v>
@@ -22262,7 +22262,7 @@
     </row>
     <row r="928" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B928">
         <v>63585</v>
@@ -22285,7 +22285,7 @@
     </row>
     <row r="929" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B929">
         <v>2650</v>
@@ -22308,7 +22308,7 @@
     </row>
     <row r="930" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B930">
         <v>4281</v>
@@ -22331,7 +22331,7 @@
     </row>
     <row r="931" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B931">
         <v>1144</v>
@@ -22400,7 +22400,7 @@
     </row>
     <row r="934" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B934">
         <v>3206</v>
@@ -22423,7 +22423,7 @@
     </row>
     <row r="935" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B935">
         <v>2162</v>
@@ -22446,7 +22446,7 @@
     </row>
     <row r="936" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B936">
         <v>929</v>
@@ -22469,7 +22469,7 @@
     </row>
     <row r="937" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B937">
         <v>1505</v>
@@ -22492,7 +22492,7 @@
     </row>
     <row r="938" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B938">
         <v>123058</v>
@@ -22538,7 +22538,7 @@
     </row>
     <row r="940" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B940">
         <v>14300</v>
@@ -22561,7 +22561,7 @@
     </row>
     <row r="941" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B941">
         <v>200316</v>
@@ -22584,7 +22584,7 @@
     </row>
     <row r="942" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B942">
         <v>1025265</v>
@@ -22607,7 +22607,7 @@
     </row>
     <row r="943" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B943">
         <v>137</v>
@@ -22653,7 +22653,7 @@
     </row>
     <row r="945" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B945">
         <v>2230</v>
@@ -22676,7 +22676,7 @@
     </row>
     <row r="946" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B946">
         <v>974</v>
@@ -22722,7 +22722,7 @@
     </row>
     <row r="948" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B948">
         <v>2624</v>
@@ -22745,7 +22745,7 @@
     </row>
     <row r="949" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B949">
         <v>4541</v>
@@ -22768,7 +22768,7 @@
     </row>
     <row r="950" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B950">
         <v>1191</v>
@@ -22791,7 +22791,7 @@
     </row>
     <row r="951" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B951">
         <v>46</v>
@@ -22814,7 +22814,7 @@
     </row>
     <row r="952" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B952">
         <v>2503</v>
@@ -22837,7 +22837,7 @@
     </row>
     <row r="953" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B953">
         <v>8177</v>
@@ -22929,7 +22929,7 @@
     </row>
     <row r="957" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B957">
         <v>1018</v>
@@ -22975,7 +22975,7 @@
     </row>
     <row r="959" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B959">
         <v>1981</v>
@@ -23021,7 +23021,7 @@
     </row>
     <row r="961" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B961">
         <v>1277</v>
@@ -23044,7 +23044,7 @@
     </row>
     <row r="962" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B962">
         <v>8291</v>
@@ -23113,7 +23113,7 @@
     </row>
     <row r="965" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B965">
         <v>62</v>
@@ -23136,7 +23136,7 @@
     </row>
     <row r="966" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B966">
         <v>1671</v>
@@ -23182,7 +23182,7 @@
     </row>
     <row r="968" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B968">
         <v>72220</v>
@@ -23205,7 +23205,7 @@
     </row>
     <row r="969" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B969">
         <v>32384</v>
@@ -23251,7 +23251,7 @@
     </row>
     <row r="971" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B971">
         <v>833</v>
@@ -23274,7 +23274,7 @@
     </row>
     <row r="972" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B972">
         <v>27121</v>
@@ -23320,7 +23320,7 @@
     </row>
     <row r="974" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B974">
         <v>846</v>
@@ -23389,7 +23389,7 @@
     </row>
     <row r="977" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B977">
         <v>1363209</v>
@@ -23573,7 +23573,7 @@
     </row>
     <row r="985" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B985">
         <v>131</v>
@@ -23596,7 +23596,7 @@
     </row>
     <row r="986" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B986">
         <v>985</v>
@@ -23619,7 +23619,7 @@
     </row>
     <row r="987" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B987">
         <v>2461</v>
@@ -23642,7 +23642,7 @@
     </row>
     <row r="988" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B988">
         <v>709</v>
@@ -23688,7 +23688,7 @@
     </row>
     <row r="990" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B990">
         <v>5387</v>
@@ -23711,7 +23711,7 @@
     </row>
     <row r="991" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B991">
         <v>106634</v>
@@ -23734,7 +23734,7 @@
     </row>
     <row r="992" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B992">
         <v>916</v>
@@ -23757,7 +23757,7 @@
     </row>
     <row r="993" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B993">
         <v>229</v>
@@ -23780,7 +23780,7 @@
     </row>
     <row r="994" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B994">
         <v>11781</v>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="995" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B995">
         <v>2823</v>
@@ -23826,7 +23826,7 @@
     </row>
     <row r="996" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B996">
         <v>413</v>
@@ -23849,7 +23849,7 @@
     </row>
     <row r="997" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B997">
         <v>189</v>
@@ -23872,7 +23872,7 @@
     </row>
     <row r="998" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B998">
         <v>4578</v>
@@ -23895,7 +23895,7 @@
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B999">
         <v>437</v>
@@ -23918,7 +23918,7 @@
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1000">
         <v>5601</v>
@@ -23941,7 +23941,7 @@
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1001">
         <v>171</v>
@@ -23964,7 +23964,7 @@
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1002">
         <v>238347</v>
@@ -23987,7 +23987,7 @@
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1003">
         <v>892</v>
@@ -24010,7 +24010,7 @@
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1004">
         <v>1261</v>
@@ -24033,7 +24033,7 @@
     </row>
     <row r="1005" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1005">
         <v>402</v>
@@ -24056,7 +24056,7 @@
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1006">
         <v>33</v>
@@ -24171,7 +24171,7 @@
     </row>
     <row r="1011" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1011">
         <v>518</v>
@@ -24240,7 +24240,7 @@
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1014">
         <v>9</v>
@@ -24286,7 +24286,7 @@
     </row>
     <row r="1016" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1016">
         <v>1066683</v>
@@ -24953,7 +24953,7 @@
     </row>
     <row r="1045" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B1045">
         <v>2705720</v>
@@ -24999,7 +24999,7 @@
     </row>
     <row r="1047" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1047">
         <v>234751</v>
@@ -25068,7 +25068,7 @@
     </row>
     <row r="1050" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1050">
         <v>17340</v>
@@ -25091,7 +25091,7 @@
     </row>
     <row r="1051" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1051">
         <v>709</v>
@@ -25114,7 +25114,7 @@
     </row>
     <row r="1052" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1052">
         <v>20</v>
@@ -25160,7 +25160,7 @@
     </row>
     <row r="1054" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1054">
         <v>608499</v>
@@ -25206,7 +25206,7 @@
     </row>
     <row r="1056" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B1056">
         <v>71612</v>
@@ -25229,7 +25229,7 @@
     </row>
     <row r="1057" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1057">
         <v>90538</v>
@@ -25298,7 +25298,7 @@
     </row>
     <row r="1060" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1060">
         <v>603572</v>
@@ -25344,7 +25344,7 @@
     </row>
     <row r="1062" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1062">
         <v>2435</v>
@@ -25390,7 +25390,7 @@
     </row>
     <row r="1064" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1064">
         <v>6572794</v>
@@ -25436,7 +25436,7 @@
     </row>
     <row r="1066" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1066">
         <v>464</v>
@@ -25551,7 +25551,7 @@
     </row>
     <row r="1071" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1071">
         <v>530754</v>
@@ -25574,7 +25574,7 @@
     </row>
     <row r="1072" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1072">
         <v>462748</v>
@@ -25597,7 +25597,7 @@
     </row>
     <row r="1073" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1073">
         <v>1802</v>
@@ -25620,7 +25620,7 @@
     </row>
     <row r="1074" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1074">
         <v>435</v>
@@ -25643,7 +25643,7 @@
     </row>
     <row r="1075" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1075">
         <v>55285</v>
@@ -25666,7 +25666,7 @@
     </row>
     <row r="1076" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1076">
         <v>2804</v>
@@ -25689,7 +25689,7 @@
     </row>
     <row r="1077" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1077">
         <v>3960</v>
@@ -25712,7 +25712,7 @@
     </row>
     <row r="1078" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1078">
         <v>1052</v>
@@ -25781,7 +25781,7 @@
     </row>
     <row r="1081" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1081">
         <v>3014</v>
@@ -25804,7 +25804,7 @@
     </row>
     <row r="1082" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1082">
         <v>1810</v>
@@ -25827,7 +25827,7 @@
     </row>
     <row r="1083" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1083">
         <v>891</v>
@@ -25850,7 +25850,7 @@
     </row>
     <row r="1084" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1084">
         <v>1520</v>
@@ -25873,7 +25873,7 @@
     </row>
     <row r="1085" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1085">
         <v>117982</v>
@@ -25919,7 +25919,7 @@
     </row>
     <row r="1087" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1087" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1087">
         <v>14134</v>
@@ -25942,7 +25942,7 @@
     </row>
     <row r="1088" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1088" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1088">
         <v>196928</v>
@@ -25965,7 +25965,7 @@
     </row>
     <row r="1089" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1089" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1089">
         <v>1014694</v>
@@ -25988,7 +25988,7 @@
     </row>
     <row r="1090" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1090" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1090">
         <v>304</v>
@@ -26034,7 +26034,7 @@
     </row>
     <row r="1092" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1092" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1092">
         <v>2083</v>
@@ -26057,7 +26057,7 @@
     </row>
     <row r="1093" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1093" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1093">
         <v>937</v>
@@ -26103,7 +26103,7 @@
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1095" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1095">
         <v>2576</v>
@@ -26126,7 +26126,7 @@
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1096" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1096">
         <v>4586</v>
@@ -26149,7 +26149,7 @@
     </row>
     <row r="1097" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1097" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1097">
         <v>875</v>
@@ -26172,7 +26172,7 @@
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1098" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1098">
         <v>50</v>
@@ -26195,7 +26195,7 @@
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1099" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1099">
         <v>2455</v>
@@ -26218,7 +26218,7 @@
     </row>
     <row r="1100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1100" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1100">
         <v>8171</v>
@@ -26310,7 +26310,7 @@
     </row>
     <row r="1104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1104" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1104">
         <v>1005</v>
@@ -26356,7 +26356,7 @@
     </row>
     <row r="1106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1106" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1106">
         <v>1931</v>
@@ -26402,7 +26402,7 @@
     </row>
     <row r="1108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1108" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1108">
         <v>1452</v>
@@ -26425,7 +26425,7 @@
     </row>
     <row r="1109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1109" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1109">
         <v>8589</v>
@@ -26494,7 +26494,7 @@
     </row>
     <row r="1112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1112" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1112">
         <v>52</v>
@@ -26517,7 +26517,7 @@
     </row>
     <row r="1113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1113" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1113">
         <v>1538</v>
@@ -26563,7 +26563,7 @@
     </row>
     <row r="1115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1115" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1115">
         <v>67082</v>
@@ -26586,7 +26586,7 @@
     </row>
     <row r="1116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1116">
         <v>30990</v>
@@ -26632,7 +26632,7 @@
     </row>
     <row r="1118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1118">
         <v>757</v>
@@ -26655,7 +26655,7 @@
     </row>
     <row r="1119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1119">
         <v>25547</v>
@@ -26701,7 +26701,7 @@
     </row>
     <row r="1121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1121">
         <v>906</v>
@@ -26770,7 +26770,7 @@
     </row>
     <row r="1124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1124" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1124">
         <v>1291029</v>
@@ -26954,7 +26954,7 @@
     </row>
     <row r="1132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1132">
         <v>244</v>
@@ -26977,7 +26977,7 @@
     </row>
     <row r="1133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1133" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B1133">
         <v>984</v>
@@ -27000,7 +27000,7 @@
     </row>
     <row r="1134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1134" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1134">
         <v>2043</v>
@@ -27023,7 +27023,7 @@
     </row>
     <row r="1135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1135">
         <v>674</v>
@@ -27069,7 +27069,7 @@
     </row>
     <row r="1137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1137" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1137">
         <v>5281</v>
@@ -27092,7 +27092,7 @@
     </row>
     <row r="1138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1138" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1138">
         <v>106570</v>
@@ -27115,7 +27115,7 @@
     </row>
     <row r="1139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1139" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1139">
         <v>926</v>
@@ -27138,7 +27138,7 @@
     </row>
     <row r="1140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1140" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1140">
         <v>293</v>
@@ -27161,7 +27161,7 @@
     </row>
     <row r="1141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1141" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1141">
         <v>11716</v>
@@ -27184,7 +27184,7 @@
     </row>
     <row r="1142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1142" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1142">
         <v>2515</v>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="1143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1143" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1143">
         <v>430</v>
@@ -27230,7 +27230,7 @@
     </row>
     <row r="1144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1144" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1144">
         <v>212</v>
@@ -27253,7 +27253,7 @@
     </row>
     <row r="1145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1145" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1145">
         <v>3912</v>
@@ -27276,7 +27276,7 @@
     </row>
     <row r="1146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1146" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1146">
         <v>475</v>
@@ -27299,7 +27299,7 @@
     </row>
     <row r="1147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1147" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1147">
         <v>5225</v>
@@ -27322,7 +27322,7 @@
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1148" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1148">
         <v>175</v>
@@ -27345,7 +27345,7 @@
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1149" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1149">
         <v>231470</v>
@@ -27368,7 +27368,7 @@
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1150" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1150">
         <v>846</v>
@@ -27391,7 +27391,7 @@
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1151" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1151">
         <v>1357</v>
@@ -27414,7 +27414,7 @@
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1152" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1152">
         <v>387</v>
@@ -27437,7 +27437,7 @@
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1153" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1153">
         <v>93</v>
@@ -27552,7 +27552,7 @@
     </row>
     <row r="1158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1158" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1158">
         <v>507</v>
@@ -27621,7 +27621,7 @@
     </row>
     <row r="1161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1161" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1161">
         <v>13</v>
@@ -27667,7 +27667,7 @@
     </row>
     <row r="1163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1163" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1163">
         <v>1084618</v>
@@ -28334,7 +28334,7 @@
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1192" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B1192">
         <v>2763068</v>
@@ -28380,7 +28380,7 @@
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1194" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1194">
         <v>256169</v>
@@ -28449,7 +28449,7 @@
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1197" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1197">
         <v>18907</v>
@@ -28472,7 +28472,7 @@
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1198" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1198">
         <v>719</v>
@@ -28495,7 +28495,7 @@
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1199" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1199">
         <v>26</v>
@@ -28541,7 +28541,7 @@
     </row>
     <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1201" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1201">
         <v>583118</v>
@@ -28587,7 +28587,7 @@
     </row>
     <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1203" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B1203">
         <v>68022</v>
@@ -28610,7 +28610,7 @@
     </row>
     <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1204" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1204">
         <v>95763</v>
@@ -28679,7 +28679,7 @@
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1207" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1207">
         <v>604465</v>
@@ -28725,7 +28725,7 @@
     </row>
     <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1209" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1209">
         <v>2624</v>
@@ -28771,7 +28771,7 @@
     </row>
     <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1211" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1211">
         <v>6594309</v>
@@ -28817,7 +28817,7 @@
     </row>
     <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1213" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1213">
         <v>431</v>
@@ -28932,7 +28932,7 @@
     </row>
     <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1218" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1218">
         <v>527275</v>
@@ -28955,7 +28955,7 @@
     </row>
     <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1219" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1219">
         <v>455170</v>
@@ -28978,7 +28978,7 @@
     </row>
     <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1220" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1220">
         <v>1888</v>
@@ -29001,7 +29001,7 @@
     </row>
     <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1221" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1221">
         <v>455</v>
@@ -29024,7 +29024,7 @@
     </row>
     <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1222" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1222">
         <v>62458</v>
@@ -29047,7 +29047,7 @@
     </row>
     <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1223" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1223">
         <v>2527</v>
@@ -29070,7 +29070,7 @@
     </row>
     <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1224" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1224">
         <v>3930</v>
@@ -29093,7 +29093,7 @@
     </row>
     <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1225" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1225">
         <v>1122</v>
@@ -29162,7 +29162,7 @@
     </row>
     <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1228" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1228">
         <v>3077</v>
@@ -29185,7 +29185,7 @@
     </row>
     <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1229" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1229">
         <v>2112</v>
@@ -29208,7 +29208,7 @@
     </row>
     <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1230" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1230">
         <v>1011</v>
@@ -29231,7 +29231,7 @@
     </row>
     <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1231" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1231">
         <v>1565</v>
@@ -29254,7 +29254,7 @@
     </row>
     <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1232" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1232">
         <v>125176</v>
@@ -29300,7 +29300,7 @@
     </row>
     <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1234" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1234">
         <v>13188</v>
@@ -29323,7 +29323,7 @@
     </row>
     <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1235" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1235">
         <v>206639</v>
@@ -29346,7 +29346,7 @@
     </row>
     <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1236" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1236">
         <v>1460099</v>
@@ -29369,7 +29369,7 @@
     </row>
     <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1237" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1237">
         <v>917</v>
@@ -29415,7 +29415,7 @@
     </row>
     <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1239" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1239">
         <v>2141</v>
@@ -29438,7 +29438,7 @@
     </row>
     <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1240" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1240">
         <v>1071</v>
@@ -29484,7 +29484,7 @@
     </row>
     <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1242" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1242">
         <v>2642</v>
@@ -29507,7 +29507,7 @@
     </row>
     <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1243" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1243">
         <v>4353</v>
@@ -29530,7 +29530,7 @@
     </row>
     <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1244" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1244">
         <v>609</v>
@@ -29553,7 +29553,7 @@
     </row>
     <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1245" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1245">
         <v>51</v>
@@ -29576,7 +29576,7 @@
     </row>
     <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1246" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1246">
         <v>2507</v>
@@ -29599,7 +29599,7 @@
     </row>
     <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1247" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1247">
         <v>8894</v>
@@ -29691,7 +29691,7 @@
     </row>
     <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1251" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1251">
         <v>1066</v>
@@ -29737,7 +29737,7 @@
     </row>
     <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1253" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1253">
         <v>1845</v>
@@ -29783,7 +29783,7 @@
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1255" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1255">
         <v>1576</v>
@@ -29806,7 +29806,7 @@
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1256" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1256">
         <v>8255</v>
@@ -29875,7 +29875,7 @@
     </row>
     <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1259" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1259">
         <v>61</v>
@@ -29898,7 +29898,7 @@
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1260" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1260">
         <v>1537</v>
@@ -29944,7 +29944,7 @@
     </row>
     <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1262" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1262">
         <v>71280</v>
@@ -29967,7 +29967,7 @@
     </row>
     <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1263" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1263">
         <v>33987</v>
@@ -30013,7 +30013,7 @@
     </row>
     <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1265" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1265">
         <v>902</v>
@@ -30036,7 +30036,7 @@
     </row>
     <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1266" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1266">
         <v>27448</v>
@@ -30082,7 +30082,7 @@
     </row>
     <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1268" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1268">
         <v>904</v>
@@ -30151,7 +30151,7 @@
     </row>
     <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1271" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1271">
         <v>1321710</v>
@@ -30335,7 +30335,7 @@
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1279" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1279">
         <v>265</v>
@@ -30358,7 +30358,7 @@
     </row>
     <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1280" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B1280">
         <v>1040</v>
@@ -30381,7 +30381,7 @@
     </row>
     <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1281" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1281">
         <v>2017</v>
@@ -30404,7 +30404,7 @@
     </row>
     <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1282" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1282">
         <v>634</v>
@@ -30450,7 +30450,7 @@
     </row>
     <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1284" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1284">
         <v>5541</v>
@@ -30473,7 +30473,7 @@
     </row>
     <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1285" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1285">
         <v>110859</v>
@@ -30496,7 +30496,7 @@
     </row>
     <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1286" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1286">
         <v>946</v>
@@ -30519,7 +30519,7 @@
     </row>
     <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1287" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1287">
         <v>350</v>
@@ -30542,7 +30542,7 @@
     </row>
     <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1288" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1288">
         <v>12362</v>
@@ -30565,7 +30565,7 @@
     </row>
     <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1289" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1289">
         <v>2686</v>
@@ -30588,7 +30588,7 @@
     </row>
     <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1290" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1290">
         <v>498</v>
@@ -30611,7 +30611,7 @@
     </row>
     <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1291" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1291">
         <v>253</v>
@@ -30634,7 +30634,7 @@
     </row>
     <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1292" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1292">
         <v>5016</v>
@@ -30657,7 +30657,7 @@
     </row>
     <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1293" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1293">
         <v>518</v>
@@ -30680,7 +30680,7 @@
     </row>
     <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1294" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1294">
         <v>5361</v>
@@ -30703,7 +30703,7 @@
     </row>
     <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1295" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1295">
         <v>174</v>
@@ -30726,7 +30726,7 @@
     </row>
     <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1296" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1296">
         <v>226657</v>
@@ -30749,7 +30749,7 @@
     </row>
     <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1297" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1297">
         <v>840</v>
@@ -30772,7 +30772,7 @@
     </row>
     <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1298" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1298">
         <v>1577</v>
@@ -30795,7 +30795,7 @@
     </row>
     <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1299" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1299">
         <v>400</v>
@@ -30818,7 +30818,7 @@
     </row>
     <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1300" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1300">
         <v>180</v>
@@ -30933,7 +30933,7 @@
     </row>
     <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1305" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1305">
         <v>543</v>
@@ -31002,7 +31002,7 @@
     </row>
     <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1308" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1308">
         <v>18</v>
@@ -31715,7 +31715,7 @@
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1339" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B1339">
         <v>3052270</v>
@@ -31761,7 +31761,7 @@
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1341" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1341">
         <v>297013</v>
@@ -31830,7 +31830,7 @@
     </row>
     <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1344" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1344">
         <v>24100</v>
@@ -31853,7 +31853,7 @@
     </row>
     <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1345" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1345">
         <v>884</v>
@@ -31876,7 +31876,7 @@
     </row>
     <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1346" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1346">
         <v>28</v>
@@ -31922,7 +31922,7 @@
     </row>
     <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1348" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1348">
         <v>701415</v>
@@ -31968,7 +31968,7 @@
     </row>
     <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1350" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B1350">
         <v>77618</v>
@@ -31991,7 +31991,7 @@
     </row>
     <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1351" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1351">
         <v>104955</v>
@@ -32060,7 +32060,7 @@
     </row>
     <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1354" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1354">
         <v>664156</v>
@@ -32106,7 +32106,7 @@
     </row>
     <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1356" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1356">
         <v>3187</v>
@@ -32152,7 +32152,7 @@
     </row>
     <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1358" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1358">
         <v>7497853</v>
@@ -32198,7 +32198,7 @@
     </row>
     <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1360" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1360">
         <v>205</v>
@@ -32313,7 +32313,7 @@
     </row>
     <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1365" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1365">
         <v>572904</v>
@@ -32336,7 +32336,7 @@
     </row>
     <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1366" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1366">
         <v>523904</v>
@@ -32359,7 +32359,7 @@
     </row>
     <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1367" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1367">
         <v>2267</v>
@@ -32382,7 +32382,7 @@
     </row>
     <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1368" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1368">
         <v>607</v>
@@ -32405,7 +32405,7 @@
     </row>
     <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1369" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1369">
         <v>69150</v>
@@ -32428,7 +32428,7 @@
     </row>
     <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1370" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1370">
         <v>3269</v>
@@ -32451,7 +32451,7 @@
     </row>
     <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1371" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1371">
         <v>4719</v>
@@ -32474,7 +32474,7 @@
     </row>
     <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1372" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1372">
         <v>1498</v>
@@ -32543,7 +32543,7 @@
     </row>
     <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1375" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1375">
         <v>3873</v>
@@ -32566,7 +32566,7 @@
     </row>
     <row r="1376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1376" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1376">
         <v>2424</v>
@@ -32589,7 +32589,7 @@
     </row>
     <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1377" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1377">
         <v>1291</v>
@@ -32612,7 +32612,7 @@
     </row>
     <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1378" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1378">
         <v>2091</v>
@@ -32635,7 +32635,7 @@
     </row>
     <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1379" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1379">
         <v>133542</v>
@@ -32681,7 +32681,7 @@
     </row>
     <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1381" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1381">
         <v>14557</v>
@@ -32704,7 +32704,7 @@
     </row>
     <row r="1382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1382" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1382">
         <v>227528</v>
@@ -32727,7 +32727,7 @@
     </row>
     <row r="1383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1383" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1383">
         <v>1176278</v>
@@ -32750,7 +32750,7 @@
     </row>
     <row r="1384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1384" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1384">
         <v>1531</v>
@@ -32796,7 +32796,7 @@
     </row>
     <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1386" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1386">
         <v>2709</v>
@@ -32819,7 +32819,7 @@
     </row>
     <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1387" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1387">
         <v>1206</v>
@@ -32865,7 +32865,7 @@
     </row>
     <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1389" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1389">
         <v>3212</v>
@@ -32888,7 +32888,7 @@
     </row>
     <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1390" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1390">
         <v>5095</v>
@@ -32911,7 +32911,7 @@
     </row>
     <row r="1391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1391" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1391">
         <v>1359</v>
@@ -32934,7 +32934,7 @@
     </row>
     <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1392" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1392">
         <v>68</v>
@@ -32957,7 +32957,7 @@
     </row>
     <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1393" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1393">
         <v>3770</v>
@@ -32980,7 +32980,7 @@
     </row>
     <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1394" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1394">
         <v>8909</v>
@@ -33003,7 +33003,7 @@
     </row>
     <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1395" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1395">
         <v>0</v>
@@ -33095,7 +33095,7 @@
     </row>
     <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1399" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1399">
         <v>1227</v>
@@ -33141,7 +33141,7 @@
     </row>
     <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1401" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1401">
         <v>2618</v>
@@ -33187,7 +33187,7 @@
     </row>
     <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1403" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1403">
         <v>2050</v>
@@ -33210,7 +33210,7 @@
     </row>
     <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1404" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1404">
         <v>10688</v>
@@ -33279,7 +33279,7 @@
     </row>
     <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1407" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1407">
         <v>66</v>
@@ -33302,7 +33302,7 @@
     </row>
     <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1408" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1408">
         <v>2010</v>
@@ -33348,7 +33348,7 @@
     </row>
     <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1410" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1410">
         <v>89840</v>
@@ -33371,7 +33371,7 @@
     </row>
     <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1411" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1411">
         <v>41662</v>
@@ -33417,7 +33417,7 @@
     </row>
     <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1413" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1413">
         <v>1076</v>
@@ -33440,7 +33440,7 @@
     </row>
     <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1414" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1414">
         <v>31855</v>
@@ -33486,7 +33486,7 @@
     </row>
     <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1416" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1416">
         <v>1149</v>
@@ -33555,7 +33555,7 @@
     </row>
     <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1419" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1419">
         <v>1502375</v>
@@ -33739,7 +33739,7 @@
     </row>
     <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1427" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1427">
         <v>298</v>
@@ -33762,7 +33762,7 @@
     </row>
     <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1428" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B1428">
         <v>1294</v>
@@ -33785,7 +33785,7 @@
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1429" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1429">
         <v>3360</v>
@@ -33808,7 +33808,7 @@
     </row>
     <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1430" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1430">
         <v>841</v>
@@ -33854,7 +33854,7 @@
     </row>
     <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1432" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1432">
         <v>7140</v>
@@ -33877,7 +33877,7 @@
     </row>
     <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1433" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1433">
         <v>124218</v>
@@ -33900,7 +33900,7 @@
     </row>
     <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1434" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1434">
         <v>1307</v>
@@ -33923,7 +33923,7 @@
     </row>
     <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1435" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1435">
         <v>596</v>
@@ -33946,7 +33946,7 @@
     </row>
     <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1436" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1436">
         <v>14747</v>
@@ -33969,7 +33969,7 @@
     </row>
     <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1437" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1437">
         <v>3372</v>
@@ -33992,7 +33992,7 @@
     </row>
     <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1438" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1438">
         <v>583</v>
@@ -34015,7 +34015,7 @@
     </row>
     <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1439" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1439">
         <v>229</v>
@@ -34038,7 +34038,7 @@
     </row>
     <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1440" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1440">
         <v>528</v>
@@ -34061,7 +34061,7 @@
     </row>
     <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1441" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1441">
         <v>6000</v>
@@ -34084,7 +34084,7 @@
     </row>
     <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1442" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1442">
         <v>610</v>
@@ -34107,7 +34107,7 @@
     </row>
     <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1443" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1443">
         <v>6713</v>
@@ -34130,7 +34130,7 @@
     </row>
     <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1444" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1444">
         <v>233</v>
@@ -34153,7 +34153,7 @@
     </row>
     <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1445" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1445">
         <v>267723</v>
@@ -34176,7 +34176,7 @@
     </row>
     <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1446" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1446">
         <v>762</v>
@@ -34199,7 +34199,7 @@
     </row>
     <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1447" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1447">
         <v>1218</v>
@@ -34222,7 +34222,7 @@
     </row>
     <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1448" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1448">
         <v>2077</v>
@@ -34245,7 +34245,7 @@
     </row>
     <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1449" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1449">
         <v>400</v>
@@ -34360,7 +34360,7 @@
     </row>
     <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1454" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1454">
         <v>1022</v>
@@ -34429,7 +34429,7 @@
     </row>
     <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1457" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1457">
         <v>20</v>
@@ -34475,7 +34475,7 @@
     </row>
     <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1459" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1459">
         <v>1372563</v>
@@ -35165,7 +35165,7 @@
     </row>
     <row r="1489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1489" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B1489">
         <v>2691190</v>
@@ -35211,7 +35211,7 @@
     </row>
     <row r="1491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1491" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1491">
         <v>260208</v>
@@ -35280,7 +35280,7 @@
     </row>
     <row r="1494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1494" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1494">
         <v>19535</v>
@@ -35303,7 +35303,7 @@
     </row>
     <row r="1495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1495" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1495">
         <v>688</v>
@@ -35326,7 +35326,7 @@
     </row>
     <row r="1496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1496" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1496">
         <v>28</v>
@@ -35372,7 +35372,7 @@
     </row>
     <row r="1498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1498" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1498">
         <v>598221</v>
@@ -35418,7 +35418,7 @@
     </row>
     <row r="1500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1500" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B1500">
         <v>65906</v>
@@ -35441,7 +35441,7 @@
     </row>
     <row r="1501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1501" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1501">
         <v>96136</v>
@@ -35510,7 +35510,7 @@
     </row>
     <row r="1504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1504" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1504">
         <v>614148</v>
@@ -35556,7 +35556,7 @@
     </row>
     <row r="1506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1506" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1506">
         <v>2550</v>
@@ -35602,7 +35602,7 @@
     </row>
     <row r="1508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1508" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1508">
         <v>6758325</v>
@@ -35648,7 +35648,7 @@
     </row>
     <row r="1510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1510" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1510">
         <v>188</v>
@@ -35763,7 +35763,7 @@
     </row>
     <row r="1515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1515" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1515">
         <v>542536</v>
@@ -35786,7 +35786,7 @@
     </row>
     <row r="1516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1516" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1516">
         <v>478551</v>
@@ -35809,7 +35809,7 @@
     </row>
     <row r="1517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1517" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1517">
         <v>2151</v>
@@ -35832,7 +35832,7 @@
     </row>
     <row r="1518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1518" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1518">
         <v>581</v>
@@ -35855,7 +35855,7 @@
     </row>
     <row r="1519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1519" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1519">
         <v>63796</v>
@@ -35878,7 +35878,7 @@
     </row>
     <row r="1520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1520" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1520">
         <v>2556</v>
@@ -35901,7 +35901,7 @@
     </row>
     <row r="1521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1521" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1521">
         <v>4163</v>
@@ -35924,7 +35924,7 @@
     </row>
     <row r="1522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1522" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1522">
         <v>1023</v>
@@ -35993,7 +35993,7 @@
     </row>
     <row r="1525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1525" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1525">
         <v>3006</v>
@@ -36016,7 +36016,7 @@
     </row>
     <row r="1526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1526" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1526">
         <v>1707</v>
@@ -36039,7 +36039,7 @@
     </row>
     <row r="1527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1527" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1527">
         <v>781</v>
@@ -36062,7 +36062,7 @@
     </row>
     <row r="1528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1528" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1528">
         <v>1676</v>
@@ -36085,7 +36085,7 @@
     </row>
     <row r="1529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1529" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1529">
         <v>122968</v>
@@ -36131,7 +36131,7 @@
     </row>
     <row r="1531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1531" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1531">
         <v>12568</v>
@@ -36154,7 +36154,7 @@
     </row>
     <row r="1532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1532" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1532">
         <v>208837</v>
@@ -36177,7 +36177,7 @@
     </row>
     <row r="1533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1533" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1533">
         <v>1009853</v>
@@ -36200,7 +36200,7 @@
     </row>
     <row r="1534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1534" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1534">
         <v>1780</v>
@@ -36246,7 +36246,7 @@
     </row>
     <row r="1536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1536" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1536">
         <v>2024</v>
@@ -36269,7 +36269,7 @@
     </row>
     <row r="1537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1537" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1537">
         <v>968</v>
@@ -36315,7 +36315,7 @@
     </row>
     <row r="1539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1539" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1539">
         <v>2734</v>
@@ -36338,7 +36338,7 @@
     </row>
     <row r="1540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1540" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1540">
         <v>3829</v>
@@ -36361,7 +36361,7 @@
     </row>
     <row r="1541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1541" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1541">
         <v>518</v>
@@ -36384,7 +36384,7 @@
     </row>
     <row r="1542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1542" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1542">
         <v>69</v>
@@ -36407,7 +36407,7 @@
     </row>
     <row r="1543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1543" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1543">
         <v>4091</v>
@@ -36430,7 +36430,7 @@
     </row>
     <row r="1544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1544" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1544">
         <v>8528</v>
@@ -36453,7 +36453,7 @@
     </row>
     <row r="1545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1545" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1545">
         <v>4</v>
@@ -36545,7 +36545,7 @@
     </row>
     <row r="1549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1549" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1549">
         <v>838</v>
@@ -36591,7 +36591,7 @@
     </row>
     <row r="1551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1551" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1551">
         <v>1935</v>
@@ -36637,7 +36637,7 @@
     </row>
     <row r="1553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1553" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1553">
         <v>1632</v>
@@ -36660,7 +36660,7 @@
     </row>
     <row r="1554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1554" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1554">
         <v>9192</v>
@@ -36729,7 +36729,7 @@
     </row>
     <row r="1557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1557" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1557">
         <v>56</v>
@@ -36752,7 +36752,7 @@
     </row>
     <row r="1558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1558" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1558">
         <v>1646</v>
@@ -36798,7 +36798,7 @@
     </row>
     <row r="1560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1560" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1560">
         <v>70382</v>
@@ -36821,7 +36821,7 @@
     </row>
     <row r="1561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1561" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1561">
         <v>33369</v>
@@ -36867,7 +36867,7 @@
     </row>
     <row r="1563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1563" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1563">
         <v>915</v>
@@ -36890,7 +36890,7 @@
     </row>
     <row r="1564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1564" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1564">
         <v>25169</v>
@@ -36936,7 +36936,7 @@
     </row>
     <row r="1566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1566" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1566">
         <v>1143</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="1569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1569" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1569">
         <v>1382705</v>
@@ -37189,7 +37189,7 @@
     </row>
     <row r="1577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1577" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1577">
         <v>321</v>
@@ -37212,7 +37212,7 @@
     </row>
     <row r="1578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1578" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B1578">
         <v>1175</v>
@@ -37235,7 +37235,7 @@
     </row>
     <row r="1579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1579" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1579">
         <v>1834</v>
@@ -37258,7 +37258,7 @@
     </row>
     <row r="1580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1580" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1580">
         <v>519</v>
@@ -37304,7 +37304,7 @@
     </row>
     <row r="1582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1582" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1582">
         <v>5290</v>
@@ -37327,7 +37327,7 @@
     </row>
     <row r="1583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1583" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1583">
         <v>108665</v>
@@ -37350,7 +37350,7 @@
     </row>
     <row r="1584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1584" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1584">
         <v>996</v>
@@ -37373,7 +37373,7 @@
     </row>
     <row r="1585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1585" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1585">
         <v>367</v>
@@ -37396,7 +37396,7 @@
     </row>
     <row r="1586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1586" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1586">
         <v>11151</v>
@@ -37419,7 +37419,7 @@
     </row>
     <row r="1587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1587" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1587">
         <v>2686</v>
@@ -37442,7 +37442,7 @@
     </row>
     <row r="1588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1588" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1588">
         <v>559</v>
@@ -37465,7 +37465,7 @@
     </row>
     <row r="1589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1589" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1589">
         <v>313</v>
@@ -37488,7 +37488,7 @@
     </row>
     <row r="1590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1590" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1590">
         <v>183</v>
@@ -37511,7 +37511,7 @@
     </row>
     <row r="1591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1591" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1591">
         <v>5734</v>
@@ -37534,7 +37534,7 @@
     </row>
     <row r="1592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1592" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1592">
         <v>607</v>
@@ -37557,7 +37557,7 @@
     </row>
     <row r="1593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1593" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1593">
         <v>5889</v>
@@ -37580,7 +37580,7 @@
     </row>
     <row r="1594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1594" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1594">
         <v>218</v>
@@ -37603,7 +37603,7 @@
     </row>
     <row r="1595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1595" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1595">
         <v>222362</v>
@@ -37626,7 +37626,7 @@
     </row>
     <row r="1596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1596" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1596">
         <v>671</v>
@@ -37649,7 +37649,7 @@
     </row>
     <row r="1597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1597" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1597">
         <v>622</v>
@@ -37672,7 +37672,7 @@
     </row>
     <row r="1598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1598" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1598">
         <v>1646</v>
@@ -37695,7 +37695,7 @@
     </row>
     <row r="1599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1599" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1599">
         <v>428</v>
@@ -37810,7 +37810,7 @@
     </row>
     <row r="1604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1604" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1604">
         <v>734</v>
@@ -37879,7 +37879,7 @@
     </row>
     <row r="1607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1607" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1607">
         <v>23</v>
@@ -37925,7 +37925,7 @@
     </row>
     <row r="1609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1609" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1609">
         <v>1226788</v>
@@ -38615,7 +38615,7 @@
     </row>
     <row r="1639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1639" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B1639">
         <v>2905651</v>
@@ -38661,7 +38661,7 @@
     </row>
     <row r="1641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1641" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1641">
         <v>267115</v>
@@ -38730,7 +38730,7 @@
     </row>
     <row r="1644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1644" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1644">
         <v>22665</v>
@@ -38753,7 +38753,7 @@
     </row>
     <row r="1645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1645" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1645">
         <v>881</v>
@@ -38776,7 +38776,7 @@
     </row>
     <row r="1646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1646" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1646">
         <v>21</v>
@@ -38822,7 +38822,7 @@
     </row>
     <row r="1648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1648" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1648">
         <v>667972</v>
@@ -38868,7 +38868,7 @@
     </row>
     <row r="1650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1650" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B1650">
         <v>73228</v>
@@ -38891,7 +38891,7 @@
     </row>
     <row r="1651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1651" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1651">
         <v>103998</v>
@@ -38960,7 +38960,7 @@
     </row>
     <row r="1654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1654" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1654">
         <v>678549</v>
@@ -39006,7 +39006,7 @@
     </row>
     <row r="1656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1656" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1656">
         <v>2977</v>
@@ -39052,7 +39052,7 @@
     </row>
     <row r="1658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1658" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1658">
         <v>7474246</v>
@@ -39098,7 +39098,7 @@
     </row>
     <row r="1660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1660" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1660">
         <v>192</v>
@@ -39213,7 +39213,7 @@
     </row>
     <row r="1665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1665" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1665">
         <v>633965</v>
@@ -39236,7 +39236,7 @@
     </row>
     <row r="1666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1666" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1666">
         <v>0</v>
@@ -39259,7 +39259,7 @@
     </row>
     <row r="1667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1667" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1667">
         <v>573222</v>
@@ -39282,7 +39282,7 @@
     </row>
     <row r="1668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1668" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1668">
         <v>2566</v>
@@ -39305,7 +39305,7 @@
     </row>
     <row r="1669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1669" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1669">
         <v>748</v>
@@ -39328,7 +39328,7 @@
     </row>
     <row r="1670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1670" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1670">
         <v>67968</v>
@@ -39351,7 +39351,7 @@
     </row>
     <row r="1671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1671" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1671">
         <v>3208</v>
@@ -39374,7 +39374,7 @@
     </row>
     <row r="1672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1672" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1672">
         <v>5014</v>
@@ -39397,7 +39397,7 @@
     </row>
     <row r="1673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1673" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1673">
         <v>1242</v>
@@ -39466,7 +39466,7 @@
     </row>
     <row r="1676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1676" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1676">
         <v>4160</v>
@@ -39489,7 +39489,7 @@
     </row>
     <row r="1677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1677" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1677">
         <v>2415</v>
@@ -39512,7 +39512,7 @@
     </row>
     <row r="1678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1678" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1678">
         <v>1008</v>
@@ -39535,7 +39535,7 @@
     </row>
     <row r="1679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1679" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1679">
         <v>2045</v>
@@ -39558,7 +39558,7 @@
     </row>
     <row r="1680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1680" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1680">
         <v>140271</v>
@@ -39604,7 +39604,7 @@
     </row>
     <row r="1682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1682" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1682">
         <v>27380</v>
@@ -39627,7 +39627,7 @@
     </row>
     <row r="1683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1683" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1683">
         <v>307312</v>
@@ -39650,7 +39650,7 @@
     </row>
     <row r="1684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1684" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1684">
         <v>1149377</v>
@@ -39673,7 +39673,7 @@
     </row>
     <row r="1685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1685" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1685">
         <v>2630</v>
@@ -39719,7 +39719,7 @@
     </row>
     <row r="1687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1687" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1687">
         <v>2618</v>
@@ -39742,7 +39742,7 @@
     </row>
     <row r="1688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1688" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1688">
         <v>1190</v>
@@ -39788,7 +39788,7 @@
     </row>
     <row r="1690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1690" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1690">
         <v>3447</v>
@@ -39811,7 +39811,7 @@
     </row>
     <row r="1691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1691" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1691">
         <v>4478</v>
@@ -39834,7 +39834,7 @@
     </row>
     <row r="1692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1692" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1692">
         <v>666</v>
@@ -39857,7 +39857,7 @@
     </row>
     <row r="1693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1693" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1693">
         <v>58</v>
@@ -39880,7 +39880,7 @@
     </row>
     <row r="1694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1694" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1694">
         <v>4865</v>
@@ -39903,7 +39903,7 @@
     </row>
     <row r="1695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1695" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1695">
         <v>8697</v>
@@ -39926,7 +39926,7 @@
     </row>
     <row r="1696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1696" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1696">
         <v>0</v>
@@ -40018,7 +40018,7 @@
     </row>
     <row r="1700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1700" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1700">
         <v>1168</v>
@@ -40064,7 +40064,7 @@
     </row>
     <row r="1702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1702" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1702">
         <v>2352</v>
@@ -40110,7 +40110,7 @@
     </row>
     <row r="1704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1704" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1704">
         <v>2335</v>
@@ -40133,7 +40133,7 @@
     </row>
     <row r="1705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1705" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1705">
         <v>10261</v>
@@ -40202,7 +40202,7 @@
     </row>
     <row r="1708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1708" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1708">
         <v>78</v>
@@ -40225,7 +40225,7 @@
     </row>
     <row r="1709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1709" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1709">
         <v>2067</v>
@@ -40271,7 +40271,7 @@
     </row>
     <row r="1711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1711" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1711">
         <v>82931</v>
@@ -40294,7 +40294,7 @@
     </row>
     <row r="1712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1712" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1712">
         <v>38123</v>
@@ -40340,7 +40340,7 @@
     </row>
     <row r="1714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1714" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1714">
         <v>1154</v>
@@ -40363,7 +40363,7 @@
     </row>
     <row r="1715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1715" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1715">
         <v>29358</v>
@@ -40409,7 +40409,7 @@
     </row>
     <row r="1717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1717" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1717">
         <v>1325</v>
@@ -40455,7 +40455,7 @@
     </row>
     <row r="1719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1719" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1719">
         <v>1</v>
@@ -40501,7 +40501,7 @@
     </row>
     <row r="1721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1721" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1721">
         <v>1538589</v>
@@ -40685,7 +40685,7 @@
     </row>
     <row r="1729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1729" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1729">
         <v>336</v>
@@ -40708,7 +40708,7 @@
     </row>
     <row r="1730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1730" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B1730">
         <v>1606</v>
@@ -40731,7 +40731,7 @@
     </row>
     <row r="1731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1731" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1731">
         <v>2199</v>
@@ -40754,7 +40754,7 @@
     </row>
     <row r="1732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1732" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1732">
         <v>842</v>
@@ -40800,7 +40800,7 @@
     </row>
     <row r="1734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1734" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1734">
         <v>5698</v>
@@ -40823,7 +40823,7 @@
     </row>
     <row r="1735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1735" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1735">
         <v>128458</v>
@@ -40846,7 +40846,7 @@
     </row>
     <row r="1736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1736" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1736">
         <v>1112</v>
@@ -40869,7 +40869,7 @@
     </row>
     <row r="1737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1737" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1737">
         <v>630</v>
@@ -40892,7 +40892,7 @@
     </row>
     <row r="1738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1738" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1738">
         <v>13263</v>
@@ -40915,7 +40915,7 @@
     </row>
     <row r="1739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1739" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1739">
         <v>2876</v>
@@ -40938,7 +40938,7 @@
     </row>
     <row r="1740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1740">
         <v>626</v>
@@ -40961,7 +40961,7 @@
     </row>
     <row r="1741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1741">
         <v>368</v>
@@ -40984,7 +40984,7 @@
     </row>
     <row r="1742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1742">
         <v>6102</v>
@@ -41007,7 +41007,7 @@
     </row>
     <row r="1743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1743">
         <v>693</v>
@@ -41030,7 +41030,7 @@
     </row>
     <row r="1744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1744">
         <v>6583</v>
@@ -41053,7 +41053,7 @@
     </row>
     <row r="1745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1745" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1745">
         <v>207</v>
@@ -41076,7 +41076,7 @@
     </row>
     <row r="1746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1746">
         <v>227078</v>
@@ -41099,7 +41099,7 @@
     </row>
     <row r="1747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1747" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1747">
         <v>795</v>
@@ -41122,7 +41122,7 @@
     </row>
     <row r="1748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1748" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1748">
         <v>994</v>
@@ -41145,7 +41145,7 @@
     </row>
     <row r="1749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1749" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1749">
         <v>2014</v>
@@ -41168,7 +41168,7 @@
     </row>
     <row r="1750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1750">
         <v>446</v>
@@ -41191,7 +41191,7 @@
     </row>
     <row r="1751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1751" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1751">
         <v>324</v>
@@ -41306,7 +41306,7 @@
     </row>
     <row r="1756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1756">
         <v>0</v>
@@ -41329,7 +41329,7 @@
     </row>
     <row r="1757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1757">
         <v>881</v>
@@ -41398,7 +41398,7 @@
     </row>
     <row r="1760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1760">
         <v>25</v>
@@ -41444,7 +41444,7 @@
     </row>
     <row r="1762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1762">
         <v>1394002</v>
@@ -42134,7 +42134,7 @@
     </row>
     <row r="1792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
-        <v>94</v>
+        <v>168</v>
       </c>
       <c r="B1792">
         <v>2905651</v>
@@ -42180,7 +42180,7 @@
     </row>
     <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1794">
         <v>267115</v>
@@ -42249,7 +42249,7 @@
     </row>
     <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1797">
         <v>22665</v>
@@ -42272,7 +42272,7 @@
     </row>
     <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1798">
         <v>881</v>
@@ -42295,7 +42295,7 @@
     </row>
     <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1799">
         <v>21</v>
@@ -42341,7 +42341,7 @@
     </row>
     <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1801">
         <v>667972</v>
@@ -42387,7 +42387,7 @@
     </row>
     <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="B1803">
         <v>73228</v>
@@ -42410,7 +42410,7 @@
     </row>
     <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1804">
         <v>103998</v>
@@ -42479,7 +42479,7 @@
     </row>
     <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B1807">
         <v>678549</v>
@@ -42525,7 +42525,7 @@
     </row>
     <row r="1809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1809">
         <v>2977</v>
@@ -42571,7 +42571,7 @@
     </row>
     <row r="1811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1811">
         <v>7474246</v>
@@ -42617,7 +42617,7 @@
     </row>
     <row r="1813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1813">
         <v>192</v>
@@ -42732,7 +42732,7 @@
     </row>
     <row r="1818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1818">
         <v>633965</v>
@@ -42755,7 +42755,7 @@
     </row>
     <row r="1819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1819">
         <v>0</v>
@@ -42778,7 +42778,7 @@
     </row>
     <row r="1820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B1820">
         <v>573222</v>
@@ -42801,7 +42801,7 @@
     </row>
     <row r="1821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B1821">
         <v>2566</v>
@@ -42824,7 +42824,7 @@
     </row>
     <row r="1822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1822">
         <v>748</v>
@@ -42847,7 +42847,7 @@
     </row>
     <row r="1823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1823">
         <v>67968</v>
@@ -42870,7 +42870,7 @@
     </row>
     <row r="1824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1824">
         <v>3208</v>
@@ -42893,7 +42893,7 @@
     </row>
     <row r="1825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1825">
         <v>5014</v>
@@ -42916,7 +42916,7 @@
     </row>
     <row r="1826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B1826">
         <v>1242</v>
@@ -42985,7 +42985,7 @@
     </row>
     <row r="1829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B1829">
         <v>4160</v>
@@ -43008,7 +43008,7 @@
     </row>
     <row r="1830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B1830">
         <v>2415</v>
@@ -43031,7 +43031,7 @@
     </row>
     <row r="1831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B1831">
         <v>1008</v>
@@ -43054,7 +43054,7 @@
     </row>
     <row r="1832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1832" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1832">
         <v>2045</v>
@@ -43077,7 +43077,7 @@
     </row>
     <row r="1833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1833" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1833">
         <v>140271</v>
@@ -43123,7 +43123,7 @@
     </row>
     <row r="1835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1835" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1835">
         <v>27380</v>
@@ -43146,7 +43146,7 @@
     </row>
     <row r="1836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1836" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B1836">
         <v>307312</v>
@@ -43169,7 +43169,7 @@
     </row>
     <row r="1837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1837" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1837">
         <v>1149377</v>
@@ -43192,7 +43192,7 @@
     </row>
     <row r="1838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1838" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1838">
         <v>2630</v>
@@ -43238,7 +43238,7 @@
     </row>
     <row r="1840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1840" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1840">
         <v>2618</v>
@@ -43261,7 +43261,7 @@
     </row>
     <row r="1841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1841" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B1841">
         <v>1190</v>
@@ -43307,7 +43307,7 @@
     </row>
     <row r="1843" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1843" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1843">
         <v>3447</v>
@@ -43330,7 +43330,7 @@
     </row>
     <row r="1844" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1844" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B1844">
         <v>4478</v>
@@ -43353,7 +43353,7 @@
     </row>
     <row r="1845" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1845" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B1845">
         <v>666</v>
@@ -43376,7 +43376,7 @@
     </row>
     <row r="1846" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1846" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B1846">
         <v>58</v>
@@ -43399,7 +43399,7 @@
     </row>
     <row r="1847" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1847" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1847">
         <v>4865</v>
@@ -43422,7 +43422,7 @@
     </row>
     <row r="1848" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1848" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B1848">
         <v>8697</v>
@@ -43445,7 +43445,7 @@
     </row>
     <row r="1849" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1849" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1849">
         <v>0</v>
@@ -43537,7 +43537,7 @@
     </row>
     <row r="1853" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1853" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B1853">
         <v>1168</v>
@@ -43583,7 +43583,7 @@
     </row>
     <row r="1855" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1855" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1855">
         <v>2352</v>
@@ -43629,7 +43629,7 @@
     </row>
     <row r="1857" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1857" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B1857">
         <v>2335</v>
@@ -43652,7 +43652,7 @@
     </row>
     <row r="1858" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1858" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B1858">
         <v>10261</v>
@@ -43721,7 +43721,7 @@
     </row>
     <row r="1861" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1861" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B1861">
         <v>78</v>
@@ -43744,7 +43744,7 @@
     </row>
     <row r="1862" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1862" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1862">
         <v>2067</v>
@@ -43790,7 +43790,7 @@
     </row>
     <row r="1864" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1864" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B1864">
         <v>82931</v>
@@ -43813,7 +43813,7 @@
     </row>
     <row r="1865" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1865" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1865">
         <v>38123</v>
@@ -43859,7 +43859,7 @@
     </row>
     <row r="1867" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1867" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B1867">
         <v>1154</v>
@@ -43882,7 +43882,7 @@
     </row>
     <row r="1868" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1868" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1868">
         <v>29358</v>
@@ -43928,7 +43928,7 @@
     </row>
     <row r="1870" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1870" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B1870">
         <v>1325</v>
@@ -43974,7 +43974,7 @@
     </row>
     <row r="1872" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1872" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B1872">
         <v>1</v>
@@ -44020,7 +44020,7 @@
     </row>
     <row r="1874" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1874" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1874">
         <v>1538589</v>
@@ -44204,7 +44204,7 @@
     </row>
     <row r="1882" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1882" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1882">
         <v>336</v>
@@ -44227,7 +44227,7 @@
     </row>
     <row r="1883" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1883" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="B1883">
         <v>1606</v>
@@ -44250,7 +44250,7 @@
     </row>
     <row r="1884" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1884" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B1884">
         <v>2199</v>
@@ -44273,7 +44273,7 @@
     </row>
     <row r="1885" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1885" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B1885">
         <v>842</v>
@@ -44319,7 +44319,7 @@
     </row>
     <row r="1887" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1887" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1887">
         <v>5698</v>
@@ -44342,7 +44342,7 @@
     </row>
     <row r="1888" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1888" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1888">
         <v>128458</v>
@@ -44365,7 +44365,7 @@
     </row>
     <row r="1889" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1889" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B1889">
         <v>1112</v>
@@ -44388,7 +44388,7 @@
     </row>
     <row r="1890" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1890" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1890">
         <v>630</v>
@@ -44411,7 +44411,7 @@
     </row>
     <row r="1891" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1891" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B1891">
         <v>13263</v>
@@ -44434,7 +44434,7 @@
     </row>
     <row r="1892" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1892" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B1892">
         <v>2876</v>
@@ -44457,7 +44457,7 @@
     </row>
     <row r="1893" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1893" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B1893">
         <v>626</v>
@@ -44480,7 +44480,7 @@
     </row>
     <row r="1894" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1894" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B1894">
         <v>368</v>
@@ -44503,7 +44503,7 @@
     </row>
     <row r="1895" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1895" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B1895">
         <v>6102</v>
@@ -44526,7 +44526,7 @@
     </row>
     <row r="1896" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1896" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B1896">
         <v>693</v>
@@ -44549,7 +44549,7 @@
     </row>
     <row r="1897" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1897" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B1897">
         <v>6583</v>
@@ -44572,7 +44572,7 @@
     </row>
     <row r="1898" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1898" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1898">
         <v>207</v>
@@ -44595,7 +44595,7 @@
     </row>
     <row r="1899" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1899" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B1899">
         <v>227078</v>
@@ -44618,7 +44618,7 @@
     </row>
     <row r="1900" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1900" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B1900">
         <v>795</v>
@@ -44641,7 +44641,7 @@
     </row>
     <row r="1901" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1901" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B1901">
         <v>994</v>
@@ -44664,7 +44664,7 @@
     </row>
     <row r="1902" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1902" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B1902">
         <v>2014</v>
@@ -44687,7 +44687,7 @@
     </row>
     <row r="1903" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1903" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B1903">
         <v>446</v>
@@ -44710,7 +44710,7 @@
     </row>
     <row r="1904" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1904" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B1904">
         <v>324</v>
@@ -44825,7 +44825,7 @@
     </row>
     <row r="1909" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1909" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B1909">
         <v>0</v>
@@ -44848,7 +44848,7 @@
     </row>
     <row r="1910" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1910" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B1910">
         <v>881</v>
@@ -44917,7 +44917,7 @@
     </row>
     <row r="1913" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1913" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B1913">
         <v>25</v>
@@ -44963,7 +44963,7 @@
     </row>
     <row r="1915" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1915" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B1915">
         <v>1394002</v>
